--- a/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data1.xlsx
+++ b/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data1.xlsx
@@ -430,13 +430,13 @@
         <v>60.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.012441876024352086</v>
+        <v>0.012480398616182975</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03551086210357344</v>
+        <v>0.03571955441284599</v>
       </c>
       <c r="D3" t="n">
-        <v>5.788959848058571E-5</v>
+        <v>5.8299768285843126E-5</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +444,13 @@
         <v>120.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.018712006474873952</v>
+        <v>0.018707345692632115</v>
       </c>
       <c r="C4" t="n">
-        <v>0.10534128514265899</v>
+        <v>0.10589758848731294</v>
       </c>
       <c r="D4" t="n">
-        <v>9.531254522527814E-4</v>
+        <v>9.593409421692437E-4</v>
       </c>
     </row>
     <row r="5">
@@ -458,13 +458,13 @@
         <v>300.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.015816848167632305</v>
+        <v>0.015700995542246816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.16735684395700315</v>
+        <v>0.168114919291464</v>
       </c>
       <c r="D5" t="n">
-        <v>0.018549728328774134</v>
+        <v>0.018661497607075236</v>
       </c>
     </row>
     <row r="6">
@@ -472,13 +472,13 @@
         <v>600.0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.009292858356230081</v>
+        <v>0.009127528444372927</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1359909071436483</v>
+        <v>0.1360946758050617</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09275016751037861</v>
+        <v>0.09323746541769691</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +486,13 @@
         <v>900.0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.005460169723867242</v>
+        <v>0.00530309798064472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.10718868414225396</v>
+        <v>0.10689765512216938</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18598926147564412</v>
+        <v>0.18675196898206142</v>
       </c>
     </row>
     <row r="8">
@@ -500,13 +500,13 @@
         <v>1800.0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0011396678532133873</v>
+        <v>0.0010598618062074637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06052259505955302</v>
+        <v>0.06026188649943459</v>
       </c>
       <c r="D8" t="n">
-        <v>0.38422858890825123</v>
+        <v>0.3846046327682998</v>
       </c>
     </row>
     <row r="9">
@@ -514,13 +514,13 @@
         <v>3600.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0183075490223621E-4</v>
+        <v>7.418137685167628E-5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.027620403541073375</v>
+        <v>0.027674972508104093</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3671651134100873</v>
+        <v>0.3669886589245238</v>
       </c>
     </row>
   </sheetData>
